--- a/biology/Zoologie/Bironella/Bironella.xlsx
+++ b/biology/Zoologie/Bironella/Bironella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bironella est un genre de diptères de la famille des Culicidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Bironella a été créé en 1905 par l'entomologiste britannique Frederick Vincent Theobald (1868-1930)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Bironella a été créé en 1905 par l'entomologiste britannique Frederick Vincent Theobald (1868-1930).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre Bironella est divisé en trois sous-genres et comprend huit espèces[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le genre Bironella est divisé en trois sous-genres et comprend huit espèces.
 Bironella (Bironella)
 Bironella gracilis
 Bironella simmondsi
@@ -583,7 +599,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Fred. V. Theobald, 1905, « A catalogue of the Culicidae in the Hungarian National Museum, with descriptions of new genera and species », Annales Historico-Naturales Musei Nationalis Hungarici, vol. 3, p. 61–120 (lire en ligne).</t>
         </is>
